--- a/biology/Histoire de la zoologie et de la botanique/Henry_Testot-Ferry/Henry_Testot-Ferry.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Testot-Ferry/Henry_Testot-Ferry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Testot-Ferry, dit Henry de Ferry, est un paléontologue et préhistorien français, né le 5 février 1826 à La Chapelle-la-Reine (Seine-et-Marne). Découvreur du site préhistorique de Solutré, il est décédé le 9 novembre 1869 à l'âge de seulement 43 ans, à Bussières (Saône-et-Loire).
 </t>
@@ -511,7 +523,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Bernard Alfred Testot-Ferry est le fils puiné de Claude Testot-Ferry (1773-1856), colonel des guerres napoléoniennes, titré baron par l'empereur Napoléon Ier en 1814, mort à Châtillon-sur-Seine, et de Joséphine Elizabeth Claudine Fabry.
 Après une jeunesse quelque peu oisive, typique de la jeunesse dorée du XIXe siècle, où la chasse est sa principale passion, il épouse en 1852, suivant les conseils (ou plutôt l'insistance) de son frère ainé Gustave, 2e baron Testot-Ferry, juge à Mâcon, Louise Madeleine O'Brien (1822-1900). Cette dernière apporte en dot sa propriété à Prissé (Saône-et-Loire), qu'ils occupent jusqu'à ce qu'ils déménagent pour s'installer définitivement dans le village de Bussières (Saône-et-Loire), dont il deviendra maire en 1856 et qui est situé à quelques kilomètres de la roche de Solutré.
@@ -544,7 +558,9 @@
           <t>Les débuts d'une passion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Testot-Ferry se consacra d'abord à la géologie. Membre fondateur du Comité de paléontologie française, il fut chargé de réaliser en collaboration avec le Dr Louis Édouard Gourdan de Fromentel une monographie sur les polypiers. À cette occasion, il en découvre et décrit un nouveau genre qui portera son nom : Ferrya.
 Il est le premier à constater dans la vallée de la Saône les traces de différentes occupations préhistoriques, en fouillant la région dans son ensemble et plus particulièrement le site de Charbonnières (Saône-et-Loire).
@@ -576,7 +592,9 @@
           <t>La roche de Solutré</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La paléontologie prenant vite le pas sur la géologie, il sonde à partir de 1866 le site du Crot-du-Charnier, au pied de la roche de Solutré, affleurement d'ossements de chevaux (appelé magma). Peu après, Henry Testot-Ferry découvre le long du chemin traversant le Crot-du-Charnier la zone des foyers de l'"âge du renne", contenant de nombreux outils en silex et de la faune. Si le renne prédomine, on trouve également du cheval, de l'éléphant, du cerf élaphe, du renard, du loup ou encore du tigre des cavernes. On a retrouvé dans certains foyers plus de 2 000 silex et jusqu'à 400 bois de renne.
 Contrairement aux sites découverts en grotte, il est difficile de déterminer à Solutré l'ampleur du gisement et de le délimiter. Avec Adrien Arcelin, Henry Testot-Ferry procède par sondages. Les deux hommes décident par ailleurs de tamiser la terre entre leurs mains, les vestiges sont donc méthodiquement recueillis et examinés.
@@ -610,7 +628,9 @@
           <t>Une vie consacrée aux sciences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cadre de l'étude des gisements préhistoriques de Solutré, Henry Testot-Ferry entre en contact avec la plupart des préhistoriens de son époque pour discuter et valider un certain nombre d'hypothèses. Il entretient ainsi une longue relation épistolaire avec Jacques Boucher de Perthes. Édouard Lartet, Gabriel de Mortillet et Sir John Lubbock viendront même sur place pour assister aux fouilles.
 Avec Adrien Arcelin, ils présentent leurs recherches dans des congrès internationaux et Solutré devient très vite l'un des grands sites préhistoriques français.
@@ -651,7 +671,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Henry de Ferry et Louis Édouard Gourdan de Fromentel, Paléontologie Française (22 vol. en 3 t., chaque tome en 2 parties : texte et atlas), Paris, 1861
 Henry de Ferry, Les Gisements archéologiques des bords de la Saône, Mâcon, 1868
